--- a/data/trans_orig/P20D1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8254</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4401</v>
+        <v>3652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12215</v>
+        <v>12246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5066193807356238</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.270130328970608</v>
+        <v>0.2241235561878157</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7497045648570241</v>
+        <v>0.7515984069851066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>3452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1349</v>
+        <v>1331</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6188</v>
+        <v>5686</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3894789669249374</v>
+        <v>0.3894789669249375</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1521703739047323</v>
+        <v>0.150174481652825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6981239474060674</v>
+        <v>0.641502064517408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>11707</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7227</v>
+        <v>7326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16610</v>
+        <v>16416</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4653460685908078</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2872934621729814</v>
+        <v>0.2912158325950527</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6602587718735733</v>
+        <v>0.6525419957456848</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1043</v>
+        <v>891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7736</v>
+        <v>7644</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1987550008689366</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06399621991680843</v>
+        <v>0.05468650132738374</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4747812221134384</v>
+        <v>0.4691492575888024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3364</v>
+        <v>3320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1429659612979771</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3795165086344249</v>
+        <v>0.3745414696382222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>4506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1822</v>
+        <v>1669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9180</v>
+        <v>8918</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1790982626898057</v>
+        <v>0.1790982626898058</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07241786700227219</v>
+        <v>0.06634726285543714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3649074426199211</v>
+        <v>0.3545040563072606</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4800</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1368</v>
+        <v>1653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9533</v>
+        <v>9405</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2946256183954395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08397703158532858</v>
+        <v>0.1014749443537486</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5851079324150059</v>
+        <v>0.5772226040769319</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>4144</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1860</v>
+        <v>1985</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6842</v>
+        <v>6811</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4675550717770855</v>
+        <v>0.4675550717770856</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.209832845223656</v>
+        <v>0.223928160231137</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7718471940841906</v>
+        <v>0.7683789803268505</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -925,19 +925,19 @@
         <v>8945</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4685</v>
+        <v>4673</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13939</v>
+        <v>14001</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3555556687193865</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1862439461799721</v>
+        <v>0.1857557131613627</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5540669290524545</v>
+        <v>0.5565283002159822</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>9945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5586</v>
+        <v>6009</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12940</v>
+        <v>13326</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6623033303439225</v>
+        <v>0.6623033303439226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3720195078475329</v>
+        <v>0.4001948881432801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8617735602501897</v>
+        <v>0.8874626529563676</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -1050,19 +1050,19 @@
         <v>8279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5353</v>
+        <v>5340</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11533</v>
+        <v>11388</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5116128912464223</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3307966904767536</v>
+        <v>0.3300027631139322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7127145470938824</v>
+        <v>0.7037286177168424</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1071,19 +1071,19 @@
         <v>18224</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12899</v>
+        <v>13220</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22670</v>
+        <v>22775</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5841415342274905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4134516208682207</v>
+        <v>0.4237329067620403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7266372799936608</v>
+        <v>0.730008309447147</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>4381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1338</v>
+        <v>1081</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8665</v>
+        <v>8552</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2917239427093302</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08909812265445539</v>
+        <v>0.0719635523527446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5770707397532724</v>
+        <v>0.5695229905273663</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1124,16 +1124,16 @@
         <v>351</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4088</v>
+        <v>3797</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08969256291039082</v>
+        <v>0.08969256291039079</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02170289378527149</v>
+        <v>0.02171139576987667</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2526386791441398</v>
+        <v>0.2346369611920875</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1142,19 +1142,19 @@
         <v>5832</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2420</v>
+        <v>2357</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11145</v>
+        <v>11380</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1869320553703537</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07755664126117849</v>
+        <v>0.07553872177133666</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3572278949860868</v>
+        <v>0.3647711574521999</v>
       </c>
     </row>
     <row r="10">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3943</v>
+        <v>3460</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0459727269467473</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2625574716000564</v>
+        <v>0.230422803410037</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>6452</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3469</v>
+        <v>3598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9227</v>
+        <v>9397</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3986945458431869</v>
+        <v>0.3986945458431868</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.214346584318275</v>
+        <v>0.2223501307248101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5701875273152683</v>
+        <v>0.5806803301829649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1213,19 +1213,19 @@
         <v>7142</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3613</v>
+        <v>4106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11144</v>
+        <v>11753</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2289264104021559</v>
+        <v>0.2289264104021558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1158159181158971</v>
+        <v>0.1316050404716772</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3571883935281723</v>
+        <v>0.3767210951206894</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>13956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10626</v>
+        <v>10313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15924</v>
+        <v>15858</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8308193879025564</v>
+        <v>0.8308193879025563</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6325660465963847</v>
+        <v>0.6139340219788894</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9479980789220389</v>
+        <v>0.9440528394903535</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1338,19 +1338,19 @@
         <v>4850</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2087</v>
+        <v>2168</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8225</v>
+        <v>8458</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3077551090341276</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1324066393978054</v>
+        <v>0.1375850896036959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5219195865128505</v>
+        <v>0.5367130515020838</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -1359,19 +1359,19 @@
         <v>18805</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13265</v>
+        <v>13825</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23390</v>
+        <v>23683</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5776344157813236</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4074369277292734</v>
+        <v>0.4246584194808316</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7184656228368527</v>
+        <v>0.7274633725432534</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>1869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5457</v>
+        <v>5094</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1112856237261817</v>
+        <v>0.1112856237261816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02737275232812054</v>
+        <v>0.02412983757818089</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3248889728038976</v>
+        <v>0.3032531411518785</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1409,19 +1409,19 @@
         <v>2058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5271</v>
+        <v>5313</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1306108226553424</v>
+        <v>0.1306108226553425</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03042400559010667</v>
+        <v>0.03133595587319939</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3345001934285623</v>
+        <v>0.337125705614947</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1430,19 +1430,19 @@
         <v>3928</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1560</v>
+        <v>1458</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7856</v>
+        <v>8225</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1206398276926651</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04790973068978162</v>
+        <v>0.04479540553293494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2413041019360316</v>
+        <v>0.2526469545540141</v>
       </c>
     </row>
     <row r="14">
@@ -1462,16 +1462,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3379</v>
+        <v>3449</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05789498837126211</v>
+        <v>0.0578949883712621</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2011568122826118</v>
+        <v>0.2053425156688041</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1480,19 +1480,19 @@
         <v>8851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5261</v>
+        <v>5407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11960</v>
+        <v>12222</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5616340683105299</v>
+        <v>0.56163406831053</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3338578727868325</v>
+        <v>0.3431300320521996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7589431082485891</v>
+        <v>0.7755305615442946</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1501,19 +1501,19 @@
         <v>9823</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6157</v>
+        <v>5837</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15458</v>
+        <v>15282</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3017257565260114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1891229182907695</v>
+        <v>0.1792882802489439</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4748191282718331</v>
+        <v>0.469404608170435</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>12029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6688</v>
+        <v>6870</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15563</v>
+        <v>15963</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6651982208436011</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3698338620847249</v>
+        <v>0.3799187520932886</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8606007124044808</v>
+        <v>0.8827124962839725</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1626,19 +1626,19 @@
         <v>4210</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1315</v>
+        <v>1545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7796</v>
+        <v>8077</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2628936183929743</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08211190141144338</v>
+        <v>0.0964990875266073</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4868021638288207</v>
+        <v>0.5043937183869103</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1647,19 +1647,19 @@
         <v>16239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10114</v>
+        <v>9651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21754</v>
+        <v>21778</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4762576695919253</v>
+        <v>0.4762576695919252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2966257361294175</v>
+        <v>0.2830555796533971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6380115250293539</v>
+        <v>0.6387041884753388</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>3788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9917</v>
+        <v>9499</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2094537954818912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03263621372664923</v>
+        <v>0.03004169007220191</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5483862306908927</v>
+        <v>0.5252849523795605</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1697,19 +1697,19 @@
         <v>2223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5208</v>
+        <v>5486</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1388177239915664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02876861656178193</v>
+        <v>0.02418121629775308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3251862406811933</v>
+        <v>0.3425537179368852</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1718,19 +1718,19 @@
         <v>6011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2380</v>
+        <v>2211</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12856</v>
+        <v>13525</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1762798814765881</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06981187607898046</v>
+        <v>0.06483077846044775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3770346884591684</v>
+        <v>0.3966507141353046</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>2267</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6947</v>
+        <v>6780</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1253479836745077</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02751382243528384</v>
+        <v>0.02158850558453493</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3841256575115781</v>
+        <v>0.3749317175861342</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -1768,19 +1768,19 @@
         <v>9581</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13431</v>
+        <v>13617</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5982886576154594</v>
+        <v>0.5982886576154595</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3583900461117972</v>
+        <v>0.358438161439129</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8387290296558186</v>
+        <v>0.8502876091341015</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1789,19 +1789,19 @@
         <v>11847</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6672</v>
+        <v>6577</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19481</v>
+        <v>18853</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3474624489314869</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1956694662808581</v>
+        <v>0.1928988522561033</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5713485928129983</v>
+        <v>0.5529345670290798</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>44184</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35189</v>
+        <v>34705</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51115</v>
+        <v>50728</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6675373782952302</v>
+        <v>0.6675373782952305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5316295841627688</v>
+        <v>0.5243216513852879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7722443629591971</v>
+        <v>0.7663970571074237</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1914,19 +1914,19 @@
         <v>20791</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14797</v>
+        <v>14056</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26976</v>
+        <v>26981</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3659207090189054</v>
+        <v>0.3659207090189056</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2604318133745993</v>
+        <v>0.2473939865899067</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4747769463875854</v>
+        <v>0.4748674965556286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -1935,19 +1935,19 @@
         <v>64976</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53752</v>
+        <v>53807</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74428</v>
+        <v>75278</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5282193204294098</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4369721301797147</v>
+        <v>0.4374202971821451</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6050607829164183</v>
+        <v>0.6119724184652181</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>13276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7689</v>
+        <v>7661</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21835</v>
+        <v>21157</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2005710019072998</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1161671127698585</v>
+        <v>0.1157370906543121</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3298792231343932</v>
+        <v>0.3196466033074731</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1985,19 +1985,19 @@
         <v>7000</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3756</v>
+        <v>3660</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11349</v>
+        <v>11647</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1231974963616023</v>
+        <v>0.1231974963616024</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06611139750239049</v>
+        <v>0.06440828860376409</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1997517413818053</v>
+        <v>0.2049874709626373</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -2006,19 +2006,19 @@
         <v>20276</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13432</v>
+        <v>12226</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30918</v>
+        <v>29206</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1648318415062503</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.109195479594901</v>
+        <v>0.09939214204993398</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2513438555771585</v>
+        <v>0.2374316687916762</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>8730</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4850</v>
+        <v>4547</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15836</v>
+        <v>15068</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1318916197974698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07327975728297825</v>
+        <v>0.06869791257892692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2392433754672622</v>
+        <v>0.2276423087725566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2056,19 +2056,19 @@
         <v>29027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23053</v>
+        <v>22786</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36840</v>
+        <v>36491</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5108817946194919</v>
+        <v>0.5108817946194921</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4057408245145686</v>
+        <v>0.4010387310565193</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6483891747095987</v>
+        <v>0.6422444611311556</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2077,19 +2077,19 @@
         <v>37757</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28400</v>
+        <v>28659</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48046</v>
+        <v>48623</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3069488380643398</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2308808132027053</v>
+        <v>0.2329814574099188</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3905919229130354</v>
+        <v>0.395280514540182</v>
       </c>
     </row>
     <row r="23">
